--- a/biology/Médecine/Eugène_Kalt/Eugène_Kalt.xlsx
+++ b/biology/Médecine/Eugène_Kalt/Eugène_Kalt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Kalt</t>
+          <t>Eugène_Kalt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène Jean Baptiste Kalt est un ophtalmologiste français né à Landser (Haut-Rhin) le 24 février 1861 et mort à Paris le 9 mai 1941.
-En 1888, alors chef de service d'ophtalmologie à l'Hôtel-Dieu, il présente à l'Académie de médecine de Paris la première utilisation de lentilles de contact pour le traitement du kératocône[1].
+En 1888, alors chef de service d'ophtalmologie à l'Hôtel-Dieu, il présente à l'Académie de médecine de Paris la première utilisation de lentilles de contact pour le traitement du kératocône.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Kalt</t>
+          <t>Eugène_Kalt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Recherches anatomiques et physiologiques sur les opérations de strabisme, A. Delahaye et E. Lecrosnier, Paris, 1886, 90 p.</t>
         </is>
